--- a/newData/audio_data.xlsx
+++ b/newData/audio_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Automation1\AudioFiles\newData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B40A57-2C43-41F0-882E-257A7F7B4E8D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67186487-78A2-4787-9AF6-062AC075377E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10380" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7593,8 +7593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F548"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A538" workbookViewId="0">
-      <selection activeCell="C534" sqref="C534"/>
+    <sheetView tabSelected="1" topLeftCell="A526" workbookViewId="0">
+      <selection activeCell="F546" sqref="F546"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>

--- a/newData/audio_data.xlsx
+++ b/newData/audio_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Automation1\AudioFiles\newData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67186487-78A2-4787-9AF6-062AC075377E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D2198C-48E5-4A8C-8CEA-DA9EEBEB4471}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10380" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5647" uniqueCount="1198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5653" uniqueCount="1201">
   <si>
     <t>Category</t>
   </si>
@@ -3622,6 +3622,15 @@
   </si>
   <si>
     <t>Productivity</t>
+  </si>
+  <si>
+    <t>["mr-IN","hi-IN", "en-IN","te-IN"]</t>
+  </si>
+  <si>
+    <t>["mr-IN","hi-IN", "en-IN","ta-IN"]</t>
+  </si>
+  <si>
+    <t>12 இன் பகுத்தெடுப்பு என்ன.wav</t>
   </si>
 </sst>
 </file>
@@ -4044,12 +4053,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E133"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A109" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="4" max="4" width="27.19921875" customWidth="1"/>
     <col min="5" max="5" width="71.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7591,10 +7601,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F548"/>
+  <dimension ref="A1:F549"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A526" workbookViewId="0">
-      <selection activeCell="F546" sqref="F546"/>
+      <selection activeCell="F552" sqref="F552"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -18361,7 +18371,7 @@
         <v>1162</v>
       </c>
       <c r="E538" s="4" t="s">
-        <v>761</v>
+        <v>1198</v>
       </c>
       <c r="F538" s="4" t="s">
         <v>166</v>
@@ -18381,7 +18391,7 @@
         <v>1162</v>
       </c>
       <c r="E539" s="4" t="s">
-        <v>761</v>
+        <v>1198</v>
       </c>
       <c r="F539" s="4" t="s">
         <v>167</v>
@@ -18401,7 +18411,7 @@
         <v>1162</v>
       </c>
       <c r="E540" s="4" t="s">
-        <v>761</v>
+        <v>1198</v>
       </c>
       <c r="F540" s="4" t="s">
         <v>168</v>
@@ -18421,7 +18431,7 @@
         <v>1162</v>
       </c>
       <c r="E541" s="4" t="s">
-        <v>761</v>
+        <v>1198</v>
       </c>
       <c r="F541" s="4" t="s">
         <v>169</v>
@@ -18441,7 +18451,7 @@
         <v>1162</v>
       </c>
       <c r="E542" s="4" t="s">
-        <v>761</v>
+        <v>1199</v>
       </c>
       <c r="F542" s="4" t="s">
         <v>171</v>
@@ -18461,7 +18471,7 @@
         <v>1162</v>
       </c>
       <c r="E543" s="4" t="s">
-        <v>761</v>
+        <v>1199</v>
       </c>
       <c r="F543" s="4" t="s">
         <v>172</v>
@@ -18481,7 +18491,7 @@
         <v>1162</v>
       </c>
       <c r="E544" s="4" t="s">
-        <v>761</v>
+        <v>1199</v>
       </c>
       <c r="F544" s="4" t="s">
         <v>173</v>
@@ -18501,7 +18511,7 @@
         <v>1162</v>
       </c>
       <c r="E545" s="4" t="s">
-        <v>761</v>
+        <v>1199</v>
       </c>
       <c r="F545" s="4" t="s">
         <v>174</v>
@@ -18521,7 +18531,7 @@
         <v>1162</v>
       </c>
       <c r="E546" s="4" t="s">
-        <v>761</v>
+        <v>1199</v>
       </c>
       <c r="F546" s="4" t="s">
         <v>175</v>
@@ -18541,7 +18551,7 @@
         <v>1162</v>
       </c>
       <c r="E547" s="4" t="s">
-        <v>761</v>
+        <v>1199</v>
       </c>
       <c r="F547" s="4" t="s">
         <v>176</v>
@@ -18561,10 +18571,30 @@
         <v>1162</v>
       </c>
       <c r="E548" s="4" t="s">
-        <v>761</v>
+        <v>1199</v>
       </c>
       <c r="F548" s="4" t="s">
         <v>177</v>
+      </c>
+    </row>
+    <row r="549" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A549" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B549" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C549" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D549" s="4" t="s">
+        <v>1162</v>
+      </c>
+      <c r="E549" s="4" t="s">
+        <v>1199</v>
+      </c>
+      <c r="F549" s="2" t="s">
+        <v>1200</v>
       </c>
     </row>
   </sheetData>
